--- a/Transport Managment System/TrnVehicleRegistration.xlsx
+++ b/Transport Managment System/TrnVehicleRegistration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
   <si>
     <r>
       <t xml:space="preserve">Table Name - </t>
@@ -335,12 +335,15 @@
   <si>
     <t xml:space="preserve">Get VehicleCompanyNameid  (MstVehicleCompany) in Numaric </t>
   </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +370,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -382,7 +393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -405,11 +416,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,18 +468,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,7 +797,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="A46" sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,32 +811,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -817,7 +874,7 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -834,7 +891,7 @@
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>71</v>
       </c>
       <c r="J6" s="5"/>
@@ -852,7 +909,7 @@
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>72</v>
       </c>
       <c r="J7" s="5"/>
@@ -871,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>73</v>
       </c>
     </row>
@@ -889,7 +946,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -897,7 +954,7 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -907,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>86</v>
       </c>
     </row>
@@ -925,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -933,7 +990,7 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -943,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -951,7 +1008,7 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -961,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -979,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>74</v>
       </c>
     </row>
@@ -997,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1015,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1033,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1051,7 +1108,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1069,7 +1126,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1087,7 +1144,7 @@
         <v>25</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1105,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1123,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1141,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1159,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1177,7 +1234,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1195,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="10" t="s">
+      <c r="F26" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1213,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="6" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1231,7 +1288,7 @@
         <v>25</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1249,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="6" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1267,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1275,7 +1332,7 @@
       <c r="A31" s="4">
         <v>27</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -1285,7 +1342,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1303,7 +1360,7 @@
         <v>25</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1321,7 +1378,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1339,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="6" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1357,7 +1414,7 @@
         <v>25</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="6" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1375,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1393,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1411,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1429,7 +1486,7 @@
         <v>25</v>
       </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1447,7 +1504,7 @@
         <v>25</v>
       </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1465,7 +1522,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="5"/>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1473,7 +1530,7 @@
       <c r="A42" s="4">
         <v>38</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -1483,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="E42" s="5"/>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1501,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="E43" s="5"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1519,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="5"/>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="6" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1527,7 +1584,7 @@
       <c r="A45" s="4">
         <v>41</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -1537,19 +1594,19 @@
         <v>14</v>
       </c>
       <c r="E45" s="5"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>42</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="A46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -2112,9 +2169,10 @@
       <c r="F102" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Transport Managment System/TrnVehicleRegistration.xlsx
+++ b/Transport Managment System/TrnVehicleRegistration.xlsx
@@ -30,9 +30,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -337,6 +334,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : नाये Vehicle Registration को रजिस्टर्ड किया जाता है|
+</t>
   </si>
 </sst>
 </file>
@@ -797,7 +798,7 @@
   <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A1:F46"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +823,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -840,22 +841,22 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -863,19 +864,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -883,16 +884,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="5"/>
     </row>
@@ -901,16 +902,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -919,17 +920,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -937,17 +938,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -955,17 +956,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -973,17 +974,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -991,17 +992,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,17 +1010,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1027,17 +1028,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,17 +1046,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1063,17 +1064,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1081,17 +1082,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1099,17 +1100,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1117,17 +1118,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1135,17 +1136,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1153,17 +1154,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,17 +1172,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,17 +1190,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1207,17 +1208,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,17 +1226,17 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,17 +1244,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,17 +1262,17 @@
         <v>23</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,17 +1280,17 @@
         <v>24</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1297,17 +1298,17 @@
         <v>25</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1315,17 +1316,17 @@
         <v>26</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1333,17 +1334,17 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,17 +1352,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,17 +1370,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="D33" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1387,17 +1388,17 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,17 +1406,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,17 +1424,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1441,17 +1442,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1459,17 +1460,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1477,17 +1478,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1495,17 +1496,17 @@
         <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,17 +1514,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1531,17 +1532,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1549,17 +1550,17 @@
         <v>39</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1567,17 +1568,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,22 +1586,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
